--- a/biology/Médecine/Chlorure_de_fer(II)/Chlorure_de_fer(II).xlsx
+++ b/biology/Médecine/Chlorure_de_fer(II)/Chlorure_de_fer(II).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le chlorure de fer(II) (ou chlorure ferreux) est un sel métallique inorganique de composition chimique FeCl2, dans lequel le fer est au degré d'oxydation +2.
@@ -516,13 +528,15 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les formes hydratées de chlorure ferreux sont généralement générées par le traitement des déchets ferreux de la production d'acier avec de l'acide chlorhydrique.
 De telles solutions sont parfois dénommées « acide usé », en particulier quand l'acide chlorhydrique n'est pas complètement consommé :
 Fe + 2 HCl → FeCl2 + H2
 Ce produit nécessite un traitement avant élimination.
-Il est également un sous-produit de la production de titane quand le minerai de titane est  riche en fer[5].
+Il est également un sous-produit de la production de titane quand le minerai de titane est  riche en fer.
 </t>
         </is>
       </c>
@@ -551,14 +565,16 @@
           <t>Préparation de laboratoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le chlorure ferreux est commodément préparé en laboratoire par addition de poudre de fer à une solution de méthanol et d'acide chlorhydrique concentré, sous une atmosphère inerte. Cette réaction donne du solvate de méthanol, qui quand on le chauffe sous vide à environ 160 °C donne du FeCl2 anhydre[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chlorure ferreux est commodément préparé en laboratoire par addition de poudre de fer à une solution de méthanol et d'acide chlorhydrique concentré, sous une atmosphère inerte. Cette réaction donne du solvate de méthanol, qui quand on le chauffe sous vide à environ 160 °C donne du FeCl2 anhydre.
 FeBr2 et FeI2 et peuvent être préparés de manière analogue.
 Fe + 2HCl + 2CH3OH → FeCl2 + CH4 + H2O
-Un autre mode de synthèse en laboratoire se fait via la réaction du chlorobenzène sur du FeCl3[7]:  
+Un autre mode de synthèse en laboratoire se fait via la réaction du chlorobenzène sur du FeCl3:  
 2 FeCl3 + C6H5Cl → 2 FeCl2 + C6H4Cl2 + HCl
-FeCl2 présente une assez bonne solubilité dans le tétrahydrofuranne (THF), un solvant communément utilisé pour les réactions chimiques. Dans l'une des deux synthèses classiques du ferrocène, Wilkinson a généré du FeCl3 en chauffant du FeCl2 avec de la poudre de fer dans du THF[8].
+FeCl2 présente une assez bonne solubilité dans le tétrahydrofuranne (THF), un solvant communément utilisé pour les réactions chimiques. Dans l'une des deux synthèses classiques du ferrocène, Wilkinson a généré du FeCl3 en chauffant du FeCl2 avec de la poudre de fer dans du THF.
 </t>
         </is>
       </c>
@@ -587,7 +603,9 @@
           <t>Réactions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chlorure ferrique à chlorure ferreux se décompose à des températures élevées.
 </t>
@@ -618,7 +636,9 @@
           <t>Applications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce produit est généralement considéré comme un déchet produit par le procédé de traitement.
 Autrefois, quand de l'acide chlorhydrique n'avait pas été totalement consommé, la solution finale était utilisée comme produit de traitement des effluents aqueux, mais du fait des concentrations importantes en métaux lourds, cette pratique a été abandonnée.
